--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1510010.59740238</v>
+        <v>1506211.701840604</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2284470.912813044</v>
+        <v>2327352.096509272</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9470371.782564715</v>
+        <v>9466060.238331838</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>151.5148689892544</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>100.2356610039987</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>119.3951813827615</v>
       </c>
       <c r="C3" t="n">
-        <v>86.90830344043928</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>99.21769173414971</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -865,7 +865,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>131.5316334937201</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>259.4899496768785</v>
       </c>
       <c r="E5" t="n">
-        <v>345.3590335220224</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -1026,10 +1026,10 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>25.62453296667848</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.14560495327474</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.5076374112347</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -1066,10 +1066,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>30.36829702595319</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>118.3932426970513</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1190,10 +1190,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>77.07344524826817</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>100.2698474393481</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>313.8343050701093</v>
+        <v>316.939476783036</v>
       </c>
       <c r="C11" t="n">
-        <v>306.5882532979251</v>
+        <v>309.6934250108517</v>
       </c>
       <c r="D11" t="n">
-        <v>298.9312243113253</v>
+        <v>302.036396024252</v>
       </c>
       <c r="E11" t="n">
-        <v>315.9021964504473</v>
+        <v>319.0073681633739</v>
       </c>
       <c r="F11" t="n">
-        <v>330.0700009011484</v>
+        <v>333.1751726140751</v>
       </c>
       <c r="G11" t="n">
-        <v>326.3756347727033</v>
+        <v>329.4808064856299</v>
       </c>
       <c r="H11" t="n">
-        <v>238.1867267450006</v>
+        <v>241.2918984579273</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.19292632418635</v>
+        <v>85.29809803711298</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>141.7152749449305</v>
       </c>
       <c r="U11" t="n">
-        <v>170.5397090855738</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>256.0302480193432</v>
+        <v>41.01448765027932</v>
       </c>
       <c r="W11" t="n">
-        <v>284.6335514972218</v>
+        <v>287.7387232101485</v>
       </c>
       <c r="X11" t="n">
-        <v>90.11410845165889</v>
+        <v>306.0077575450268</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.7004453202147</v>
+        <v>103.8056170331413</v>
       </c>
       <c r="C13" t="n">
-        <v>85.84757357049708</v>
+        <v>88.95274528342371</v>
       </c>
       <c r="D13" t="n">
-        <v>71.4212887823368</v>
+        <v>74.52646049526344</v>
       </c>
       <c r="E13" t="n">
-        <v>71.34773083521591</v>
+        <v>74.45290254814255</v>
       </c>
       <c r="F13" t="n">
-        <v>73.09718225498318</v>
+        <v>76.20235396790981</v>
       </c>
       <c r="G13" t="n">
-        <v>83.91602017737532</v>
+        <v>87.02119189030195</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>74.37344405687399</v>
       </c>
       <c r="I13" t="n">
-        <v>49.10798792511929</v>
+        <v>52.21315963804592</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.00648628957521</v>
+        <v>43.11165800250184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>121.2376015080292</v>
       </c>
       <c r="T13" t="n">
-        <v>150.7063681292746</v>
+        <v>153.8115398422012</v>
       </c>
       <c r="U13" t="n">
-        <v>199.9289106563445</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>180.6640585432104</v>
+        <v>42.51944026982902</v>
       </c>
       <c r="W13" t="n">
-        <v>116.9882124209727</v>
+        <v>200.9467765768872</v>
       </c>
       <c r="X13" t="n">
-        <v>149.0840258106731</v>
+        <v>152.1891975235998</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.2254473873495</v>
+        <v>141.3306191002761</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>313.8343050701093</v>
+        <v>316.9394767830359</v>
       </c>
       <c r="C14" t="n">
-        <v>306.5882532979251</v>
+        <v>189.4988595842605</v>
       </c>
       <c r="D14" t="n">
-        <v>124.0278818567286</v>
+        <v>302.0363960242519</v>
       </c>
       <c r="E14" t="n">
-        <v>315.9021964504473</v>
+        <v>319.0073681633739</v>
       </c>
       <c r="F14" t="n">
-        <v>330.0700009011484</v>
+        <v>333.175172614075</v>
       </c>
       <c r="G14" t="n">
-        <v>326.3756347727032</v>
+        <v>329.4808064856298</v>
       </c>
       <c r="H14" t="n">
-        <v>238.1867267450006</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>54.29825255428621</v>
+        <v>57.40342426721283</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.19292632418633</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>138.6101032320039</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>170.5397090855737</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>259.1354197322698</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>287.7387232101484</v>
       </c>
       <c r="X14" t="n">
-        <v>302.9025858321001</v>
+        <v>306.0077575450267</v>
       </c>
       <c r="Y14" t="n">
-        <v>309.8703088044313</v>
+        <v>312.9754805173579</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.7004453202147</v>
+        <v>103.8056170331413</v>
       </c>
       <c r="C16" t="n">
-        <v>85.84757357049706</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>71.42128878233679</v>
+        <v>74.52646049526341</v>
       </c>
       <c r="E16" t="n">
-        <v>71.3477308352159</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>73.09718225498317</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>83.9160201773753</v>
+        <v>87.02119189030192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.26827234394734</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.10798792511928</v>
+        <v>52.21315963804589</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.00648628957519</v>
+        <v>12.80923150327349</v>
       </c>
       <c r="S16" t="n">
-        <v>118.1324297951025</v>
+        <v>121.2376015080291</v>
       </c>
       <c r="T16" t="n">
-        <v>150.7063681292746</v>
+        <v>153.8115398422012</v>
       </c>
       <c r="U16" t="n">
-        <v>199.9289106563444</v>
+        <v>203.0340823692711</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>183.769230256137</v>
       </c>
       <c r="W16" t="n">
-        <v>197.8416048639605</v>
+        <v>200.9467765768871</v>
       </c>
       <c r="X16" t="n">
-        <v>149.0840258106731</v>
+        <v>152.1891975235997</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.63541134852137</v>
+        <v>141.3306191002761</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059243</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541635</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
         <v>208.3257718879324</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,10 +2561,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
-        <v>189.1319598323723</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>56.71599671472705</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,10 +2798,10 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>173.7182208606759</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>34.69022282146281</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C32" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F32" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G32" t="n">
         <v>278.6711586412924</v>
@@ -3047,7 +3047,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U32" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V32" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X32" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C34" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
         <v>150.1371287325497</v>
@@ -3253,7 +3253,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380521</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596462</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.129828938698</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277564</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541631</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.33895730354768</v>
+        <v>869.9994786041864</v>
       </c>
       <c r="C2" t="n">
-        <v>63.33895730354768</v>
+        <v>869.9994786041864</v>
       </c>
       <c r="D2" t="n">
-        <v>63.33895730354768</v>
+        <v>869.9994786041864</v>
       </c>
       <c r="E2" t="n">
-        <v>63.33895730354768</v>
+        <v>869.9994786041864</v>
       </c>
       <c r="F2" t="n">
-        <v>50.4849228739295</v>
+        <v>453.1050401341641</v>
       </c>
       <c r="G2" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="H2" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="I2" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="J2" t="n">
-        <v>186.0123443111648</v>
+        <v>184.5920575309954</v>
       </c>
       <c r="K2" t="n">
-        <v>202.8971440589516</v>
+        <v>543.5744135584572</v>
       </c>
       <c r="L2" t="n">
-        <v>696.2174357774804</v>
+        <v>1036.894705276986</v>
       </c>
       <c r="M2" t="n">
-        <v>1208.079256881397</v>
+        <v>1464.081178835891</v>
       </c>
       <c r="N2" t="n">
-        <v>1719.941077985314</v>
+        <v>1464.081178835891</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.941077985314</v>
+        <v>1464.081178835891</v>
       </c>
       <c r="P2" t="n">
-        <v>2068.128570116836</v>
+        <v>1812.268670967413</v>
       </c>
       <c r="Q2" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="R2" t="n">
-        <v>2030.135656402358</v>
+        <v>1959.121317393884</v>
       </c>
       <c r="S2" t="n">
-        <v>1863.622101343409</v>
+        <v>1792.607762334934</v>
       </c>
       <c r="T2" t="n">
-        <v>1640.121498902825</v>
+        <v>1569.107159894351</v>
       </c>
       <c r="U2" t="n">
-        <v>1384.368769337424</v>
+        <v>1313.35443032895</v>
       </c>
       <c r="V2" t="n">
-        <v>1231.323447126056</v>
+        <v>971.2476210324679</v>
       </c>
       <c r="W2" t="n">
-        <v>860.3244120943434</v>
+        <v>869.9994786041864</v>
       </c>
       <c r="X2" t="n">
-        <v>860.3244120943434</v>
+        <v>869.9994786041864</v>
       </c>
       <c r="Y2" t="n">
-        <v>463.8337030149445</v>
+        <v>869.9994786041864</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>728.4732352057242</v>
+        <v>688.6540373222904</v>
       </c>
       <c r="C3" t="n">
-        <v>640.6870701143714</v>
+        <v>688.6540373222904</v>
       </c>
       <c r="D3" t="n">
-        <v>510.5981027358518</v>
+        <v>558.5650699437707</v>
       </c>
       <c r="E3" t="n">
-        <v>374.1516118467395</v>
+        <v>422.1185790546584</v>
       </c>
       <c r="F3" t="n">
-        <v>249.7198057298713</v>
+        <v>297.6867729377902</v>
       </c>
       <c r="G3" t="n">
-        <v>129.6599878017358</v>
+        <v>177.6269550096547</v>
       </c>
       <c r="H3" t="n">
-        <v>41.36257140233673</v>
+        <v>89.32953861025564</v>
       </c>
       <c r="I3" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="J3" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="K3" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="L3" t="n">
-        <v>404.4184676377143</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="M3" t="n">
-        <v>404.4184676377143</v>
+        <v>534.2280568214868</v>
       </c>
       <c r="N3" t="n">
-        <v>916.2802887416312</v>
+        <v>862.8419986377542</v>
       </c>
       <c r="O3" t="n">
-        <v>1428.142109845548</v>
+        <v>1357.127770837074</v>
       </c>
       <c r="P3" t="n">
-        <v>1833.763478561946</v>
+        <v>1762.749139553471</v>
       </c>
       <c r="Q3" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="R3" t="n">
-        <v>2044.211527014901</v>
+        <v>1973.197188006426</v>
       </c>
       <c r="S3" t="n">
-        <v>1909.28084991477</v>
+        <v>1838.266510906295</v>
       </c>
       <c r="T3" t="n">
-        <v>1732.297038113678</v>
+        <v>1661.282699105204</v>
       </c>
       <c r="U3" t="n">
-        <v>1522.23389479232</v>
+        <v>1451.219555783845</v>
       </c>
       <c r="V3" t="n">
-        <v>1299.693893163387</v>
+        <v>1228.679554154912</v>
       </c>
       <c r="W3" t="n">
-        <v>1069.576647296674</v>
+        <v>998.5623082881993</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2695696466856</v>
+        <v>809.2552306382111</v>
       </c>
       <c r="Y3" t="n">
-        <v>880.2695696466856</v>
+        <v>809.2552306382111</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.0483687242236</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="C4" t="n">
-        <v>686.0483687242236</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="D4" t="n">
-        <v>530.4152556267384</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="E4" t="n">
-        <v>530.4152556267384</v>
+        <v>459.1134218380487</v>
       </c>
       <c r="F4" t="n">
-        <v>373.0893208397114</v>
+        <v>459.1134218380487</v>
       </c>
       <c r="G4" t="n">
-        <v>204.8352669391569</v>
+        <v>358.8935311974934</v>
       </c>
       <c r="H4" t="n">
-        <v>204.8352669391569</v>
+        <v>203.4149801589874</v>
       </c>
       <c r="I4" t="n">
-        <v>71.74084157623477</v>
+        <v>70.3205547960653</v>
       </c>
       <c r="J4" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="K4" t="n">
-        <v>123.1976125122786</v>
+        <v>121.7773257321091</v>
       </c>
       <c r="L4" t="n">
-        <v>287.3252523860784</v>
+        <v>285.9049656059089</v>
       </c>
       <c r="M4" t="n">
-        <v>473.6168307243424</v>
+        <v>472.196543944173</v>
       </c>
       <c r="N4" t="n">
-        <v>656.8064647555516</v>
+        <v>655.3861779753822</v>
       </c>
       <c r="O4" t="n">
-        <v>819.5112317972596</v>
+        <v>818.0909450170902</v>
       </c>
       <c r="P4" t="n">
-        <v>939.3873975738381</v>
+        <v>937.9671107936688</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="R4" t="n">
-        <v>818.9086045764661</v>
+        <v>817.4883177962968</v>
       </c>
       <c r="S4" t="n">
-        <v>686.0483687242236</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="T4" t="n">
-        <v>686.0483687242236</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="U4" t="n">
-        <v>686.0483687242236</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="V4" t="n">
-        <v>686.0483687242236</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="W4" t="n">
-        <v>686.0483687242236</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="X4" t="n">
-        <v>686.0483687242236</v>
+        <v>614.6722339788462</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.0483687242236</v>
+        <v>614.6722339788462</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="C5" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="D5" t="n">
-        <v>1682.687441333504</v>
+        <v>1735.003170828687</v>
       </c>
       <c r="E5" t="n">
-        <v>1333.839932725401</v>
+        <v>1332.419645945231</v>
       </c>
       <c r="F5" t="n">
-        <v>916.9454942553782</v>
+        <v>915.5252074752086</v>
       </c>
       <c r="G5" t="n">
-        <v>503.7827387433813</v>
+        <v>502.3624519632118</v>
       </c>
       <c r="H5" t="n">
-        <v>179.6996883098719</v>
+        <v>178.2794015297024</v>
       </c>
       <c r="I5" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="J5" t="n">
-        <v>186.0123443111648</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="K5" t="n">
-        <v>544.9947003386267</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="L5" t="n">
-        <v>1038.314992057155</v>
+        <v>533.2625763406961</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.314992057155</v>
+        <v>533.2625763406961</v>
       </c>
       <c r="N5" t="n">
-        <v>1550.176813161072</v>
+        <v>1024.041577943563</v>
       </c>
       <c r="O5" t="n">
-        <v>1550.176813161072</v>
+        <v>1464.081178835891</v>
       </c>
       <c r="P5" t="n">
-        <v>1898.364305292594</v>
+        <v>1812.268670967413</v>
       </c>
       <c r="Q5" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="R5" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="S5" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="T5" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="U5" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="V5" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="W5" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="X5" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="Y5" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840.7285545423676</v>
+        <v>839.3082677621982</v>
       </c>
       <c r="C6" t="n">
-        <v>690.0743241024599</v>
+        <v>688.6540373222904</v>
       </c>
       <c r="D6" t="n">
-        <v>559.9853567239402</v>
+        <v>558.5650699437707</v>
       </c>
       <c r="E6" t="n">
-        <v>423.538865834828</v>
+        <v>422.1185790546584</v>
       </c>
       <c r="F6" t="n">
-        <v>299.1070597179598</v>
+        <v>297.6867729377902</v>
       </c>
       <c r="G6" t="n">
-        <v>179.0472417898242</v>
+        <v>177.6269550096547</v>
       </c>
       <c r="H6" t="n">
-        <v>90.74982539042514</v>
+        <v>89.32953861025564</v>
       </c>
       <c r="I6" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="J6" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="K6" t="n">
-        <v>41.36257140233673</v>
+        <v>359.6814306843937</v>
       </c>
       <c r="L6" t="n">
-        <v>524.92865730065</v>
+        <v>843.2475165827069</v>
       </c>
       <c r="M6" t="n">
-        <v>1036.790478404567</v>
+        <v>1337.533288782026</v>
       </c>
       <c r="N6" t="n">
-        <v>1036.790478404567</v>
+        <v>1831.819060981346</v>
       </c>
       <c r="O6" t="n">
-        <v>1428.142109845548</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="P6" t="n">
-        <v>1833.763478561946</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="Q6" t="n">
-        <v>2068.128570116836</v>
+        <v>1997.114231108362</v>
       </c>
       <c r="R6" t="n">
-        <v>2044.211527014901</v>
+        <v>1973.197188006426</v>
       </c>
       <c r="S6" t="n">
-        <v>1909.28084991477</v>
+        <v>1838.266510906295</v>
       </c>
       <c r="T6" t="n">
-        <v>1732.297038113678</v>
+        <v>1838.266510906295</v>
       </c>
       <c r="U6" t="n">
-        <v>1522.23389479232</v>
+        <v>1812.383144273287</v>
       </c>
       <c r="V6" t="n">
-        <v>1299.693893163387</v>
+        <v>1589.843142644354</v>
       </c>
       <c r="W6" t="n">
-        <v>1069.576647296674</v>
+        <v>1359.725896777641</v>
       </c>
       <c r="X6" t="n">
-        <v>880.2695696466856</v>
+        <v>1170.418819127652</v>
       </c>
       <c r="Y6" t="n">
-        <v>840.7285545423676</v>
+        <v>991.1046022031595</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>523.5212530355709</v>
+        <v>676.63393744574</v>
       </c>
       <c r="C7" t="n">
-        <v>354.321619286849</v>
+        <v>676.63393744574</v>
       </c>
       <c r="D7" t="n">
-        <v>198.6885061893638</v>
+        <v>521.0008243482548</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6885061893638</v>
+        <v>521.0008243482548</v>
       </c>
       <c r="F7" t="n">
-        <v>41.36257140233673</v>
+        <v>363.6748895612277</v>
       </c>
       <c r="G7" t="n">
-        <v>41.36257140233673</v>
+        <v>195.4208356606733</v>
       </c>
       <c r="H7" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="I7" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="J7" t="n">
-        <v>41.36257140233673</v>
+        <v>39.94228462216724</v>
       </c>
       <c r="K7" t="n">
-        <v>123.1976125122786</v>
+        <v>121.7773257321091</v>
       </c>
       <c r="L7" t="n">
-        <v>287.3252523860784</v>
+        <v>285.9049656059089</v>
       </c>
       <c r="M7" t="n">
-        <v>473.6168307243424</v>
+        <v>472.196543944173</v>
       </c>
       <c r="N7" t="n">
-        <v>656.8064647555516</v>
+        <v>655.3861779753822</v>
       </c>
       <c r="O7" t="n">
-        <v>819.5112317972596</v>
+        <v>818.0909450170902</v>
       </c>
       <c r="P7" t="n">
-        <v>939.3873975738381</v>
+        <v>937.9671107936688</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="R7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="S7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="T7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="U7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="V7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.3893071637198</v>
       </c>
       <c r="W7" t="n">
-        <v>942.8095939438891</v>
+        <v>910.7142596627569</v>
       </c>
       <c r="X7" t="n">
-        <v>708.7292717268722</v>
+        <v>676.63393744574</v>
       </c>
       <c r="Y7" t="n">
-        <v>708.7292717268722</v>
+        <v>676.63393744574</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1604.036739400527</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="C8" t="n">
-        <v>1604.036739400527</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="L8" t="n">
-        <v>406.2953261290054</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2208.066457325277</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>1984.565854884693</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>1728.813125319292</v>
       </c>
       <c r="V8" t="n">
-        <v>1604.036739400527</v>
+        <v>1386.70631602281</v>
       </c>
       <c r="W8" t="n">
-        <v>1604.036739400527</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.036739400527</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.036739400527</v>
+        <v>1015.707280991098</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>596.6227173495417</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>330.643372170366</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4773184619364</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1896.517144349116</v>
+        <v>1915.336366851701</v>
       </c>
       <c r="C11" t="n">
-        <v>1586.832040007777</v>
+        <v>1602.514725426598</v>
       </c>
       <c r="D11" t="n">
-        <v>1284.881308380175</v>
+        <v>1297.427456715233</v>
       </c>
       <c r="E11" t="n">
-        <v>965.7881806524508</v>
+        <v>975.1977919037439</v>
       </c>
       <c r="F11" t="n">
-        <v>632.3841393381597</v>
+        <v>638.6572135056883</v>
       </c>
       <c r="G11" t="n">
-        <v>302.711780981894</v>
+        <v>305.8483180656582</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3022.933227302557</v>
+        <v>3019.796690218794</v>
       </c>
       <c r="T11" t="n">
-        <v>3022.933227302557</v>
+        <v>2876.649947850177</v>
       </c>
       <c r="U11" t="n">
-        <v>2850.670894892887</v>
+        <v>2876.649947850177</v>
       </c>
       <c r="V11" t="n">
-        <v>2592.054482752136</v>
+        <v>2835.221172445854</v>
       </c>
       <c r="W11" t="n">
-        <v>2304.545844876155</v>
+        <v>2544.575997486108</v>
       </c>
       <c r="X11" t="n">
-        <v>2213.521492904782</v>
+        <v>2235.477252491131</v>
       </c>
       <c r="Y11" t="n">
-        <v>2213.521492904782</v>
+        <v>2235.477252491131</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L12" t="n">
-        <v>580.3847592515303</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>501.2482019925273</v>
+        <v>595.1921154616521</v>
       </c>
       <c r="C13" t="n">
-        <v>414.5334812142474</v>
+        <v>505.3408575996079</v>
       </c>
       <c r="D13" t="n">
-        <v>342.390765272493</v>
+        <v>430.0616045740894</v>
       </c>
       <c r="E13" t="n">
-        <v>270.3223502874264</v>
+        <v>354.8566525052586</v>
       </c>
       <c r="F13" t="n">
-        <v>196.4868126561303</v>
+        <v>277.8845777901983</v>
       </c>
       <c r="G13" t="n">
-        <v>111.7231559113067</v>
+        <v>189.9843839616104</v>
       </c>
       <c r="H13" t="n">
-        <v>111.7231559113067</v>
+        <v>114.859692995071</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>114.1743233590099</v>
+        <v>111.1002033632125</v>
       </c>
       <c r="K13" t="n">
-        <v>277.8383027212836</v>
+        <v>271.6900627296889</v>
       </c>
       <c r="L13" t="n">
-        <v>523.7948808474152</v>
+        <v>514.5725208600231</v>
       </c>
       <c r="M13" t="n">
-        <v>791.9153974380112</v>
+        <v>779.6189174548217</v>
       </c>
       <c r="N13" t="n">
-        <v>1056.933969721552</v>
+        <v>1041.563369742566</v>
       </c>
       <c r="O13" t="n">
-        <v>1301.467675015592</v>
+        <v>1283.022955040808</v>
       </c>
       <c r="P13" t="n">
-        <v>1503.172779044502</v>
+        <v>1481.653939073921</v>
       </c>
       <c r="Q13" t="n">
-        <v>1588.423913666885</v>
+        <v>1563.830953700507</v>
       </c>
       <c r="R13" t="n">
-        <v>1548.013321455193</v>
+        <v>1520.28382440505</v>
       </c>
       <c r="S13" t="n">
-        <v>1548.013321455193</v>
+        <v>1397.821600659566</v>
       </c>
       <c r="T13" t="n">
-        <v>1395.784666779158</v>
+        <v>1242.456408899767</v>
       </c>
       <c r="U13" t="n">
-        <v>1193.83627217679</v>
+        <v>1242.456408899767</v>
       </c>
       <c r="V13" t="n">
-        <v>1011.347324153345</v>
+        <v>1199.507479334283</v>
       </c>
       <c r="W13" t="n">
-        <v>893.1774126170095</v>
+        <v>996.5309373374271</v>
       </c>
       <c r="X13" t="n">
-        <v>742.5874875557234</v>
+        <v>842.8044751923768</v>
       </c>
       <c r="Y13" t="n">
-        <v>602.9658235280976</v>
+        <v>700.0462740809867</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1774.693821217489</v>
+        <v>1608.181781379676</v>
       </c>
       <c r="C14" t="n">
-        <v>1465.00871687615</v>
+        <v>1416.768791900624</v>
       </c>
       <c r="D14" t="n">
-        <v>1339.72802813198</v>
+        <v>1111.681523189259</v>
       </c>
       <c r="E14" t="n">
-        <v>1020.634900404255</v>
+        <v>789.45185837777</v>
       </c>
       <c r="F14" t="n">
-        <v>687.2308590899642</v>
+        <v>452.9112799797144</v>
       </c>
       <c r="G14" t="n">
-        <v>357.5585007336982</v>
+        <v>120.1023845396842</v>
       </c>
       <c r="H14" t="n">
-        <v>116.9658474559198</v>
+        <v>120.1023845396842</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3022.933227302558</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2882.923022017706</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2710.660689608035</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2710.660689608035</v>
+        <v>2844.203435981261</v>
       </c>
       <c r="W14" t="n">
-        <v>2710.660689608035</v>
+        <v>2553.558261021516</v>
       </c>
       <c r="X14" t="n">
-        <v>2404.698481696823</v>
+        <v>2244.459516026539</v>
       </c>
       <c r="Y14" t="n">
-        <v>2091.698169773155</v>
+        <v>1928.322667019107</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.571845448837</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>573.2363558753023</v>
+        <v>278.0391398491774</v>
       </c>
       <c r="C16" t="n">
-        <v>486.5216350970225</v>
+        <v>278.0391398491774</v>
       </c>
       <c r="D16" t="n">
-        <v>414.3789191552681</v>
+        <v>202.7598868236588</v>
       </c>
       <c r="E16" t="n">
-        <v>342.3105041702015</v>
+        <v>202.7598868236588</v>
       </c>
       <c r="F16" t="n">
-        <v>268.4749665389054</v>
+        <v>202.7598868236588</v>
       </c>
       <c r="G16" t="n">
-        <v>183.7113097940818</v>
+        <v>114.859692995071</v>
       </c>
       <c r="H16" t="n">
-        <v>111.7231559113067</v>
+        <v>114.859692995071</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>114.1743233590099</v>
+        <v>111.1002033632126</v>
       </c>
       <c r="K16" t="n">
-        <v>277.8383027212836</v>
+        <v>271.690062729689</v>
       </c>
       <c r="L16" t="n">
-        <v>523.7948808474152</v>
+        <v>514.5725208600236</v>
       </c>
       <c r="M16" t="n">
-        <v>791.9153974380112</v>
+        <v>779.6189174548223</v>
       </c>
       <c r="N16" t="n">
-        <v>1056.933969721552</v>
+        <v>1041.563369742566</v>
       </c>
       <c r="O16" t="n">
-        <v>1301.467675015592</v>
+        <v>1283.022955040808</v>
       </c>
       <c r="P16" t="n">
-        <v>1503.172779044503</v>
+        <v>1481.653939073922</v>
       </c>
       <c r="Q16" t="n">
-        <v>1588.423913666885</v>
+        <v>1563.830953700507</v>
       </c>
       <c r="R16" t="n">
-        <v>1548.013321455193</v>
+        <v>1550.892336020433</v>
       </c>
       <c r="S16" t="n">
-        <v>1428.687634793474</v>
+        <v>1428.430112274949</v>
       </c>
       <c r="T16" t="n">
-        <v>1276.458980117439</v>
+        <v>1273.06492051515</v>
       </c>
       <c r="U16" t="n">
-        <v>1074.51058551507</v>
+        <v>1067.979988829017</v>
       </c>
       <c r="V16" t="n">
-        <v>1074.51058551507</v>
+        <v>882.354503721808</v>
       </c>
       <c r="W16" t="n">
-        <v>874.6705806019781</v>
+        <v>679.3779617249522</v>
       </c>
       <c r="X16" t="n">
-        <v>724.0806555406922</v>
+        <v>525.651499579902</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.9539774108727</v>
+        <v>382.8932984685119</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411573</v>
@@ -5543,19 +5543,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L19" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
         <v>2132.883732040978</v>
@@ -5771,31 +5771,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,13 +5832,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,22 +5914,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343044</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655136</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,10 +6014,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6069,13 +6069,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960418</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343059</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879436</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1746.250900366154</v>
+        <v>1878.582560660095</v>
       </c>
       <c r="C26" t="n">
-        <v>1448.016080156273</v>
+        <v>1580.347740450214</v>
       </c>
       <c r="D26" t="n">
-        <v>1157.515632660129</v>
+        <v>1289.84729295407</v>
       </c>
       <c r="E26" t="n">
-        <v>849.8727890638617</v>
+        <v>982.2044493578026</v>
       </c>
       <c r="F26" t="n">
-        <v>658.8304053947987</v>
+        <v>660.2506921749687</v>
       </c>
       <c r="G26" t="n">
-        <v>340.6083311699903</v>
+        <v>342.0286179501602</v>
       </c>
       <c r="H26" t="n">
-        <v>111.4659620236692</v>
+        <v>112.8862488038387</v>
       </c>
       <c r="I26" t="n">
-        <v>68.06952640332239</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J26" t="n">
-        <v>212.7192993121505</v>
+        <v>214.13958609232</v>
       </c>
       <c r="K26" t="n">
-        <v>664.7530170691856</v>
+        <v>573.1219421197818</v>
       </c>
       <c r="L26" t="n">
-        <v>1158.073308787714</v>
+        <v>1066.442233838311</v>
       </c>
       <c r="M26" t="n">
-        <v>1753.726514636272</v>
+        <v>1612.443133882891</v>
       </c>
       <c r="N26" t="n">
-        <v>2281.537798273734</v>
+        <v>2166.449413823061</v>
       </c>
       <c r="O26" t="n">
-        <v>2814.628760895635</v>
+        <v>2699.540376444963</v>
       </c>
       <c r="P26" t="n">
-        <v>3162.816253027157</v>
+        <v>3140.779230306058</v>
       </c>
       <c r="Q26" t="n">
-        <v>3347.661813168106</v>
+        <v>3418.67615217658</v>
       </c>
       <c r="R26" t="n">
-        <v>3403.476320166119</v>
+        <v>3474.490659174593</v>
       </c>
       <c r="S26" t="n">
-        <v>3331.903446394358</v>
+        <v>3402.917785402833</v>
       </c>
       <c r="T26" t="n">
-        <v>3331.903446394358</v>
+        <v>3274.357864249438</v>
       </c>
       <c r="U26" t="n">
-        <v>3171.091398116145</v>
+        <v>3113.545815971224</v>
       </c>
       <c r="V26" t="n">
-        <v>2923.925270106852</v>
+        <v>3056.256930400793</v>
       </c>
       <c r="W26" t="n">
-        <v>2647.866916362328</v>
+        <v>2780.198576656269</v>
       </c>
       <c r="X26" t="n">
-        <v>2353.354992582573</v>
+        <v>2485.686652876514</v>
       </c>
       <c r="Y26" t="n">
-        <v>2051.804964790363</v>
+        <v>2184.136625084303</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.4355095433534</v>
+        <v>868.8557963235228</v>
       </c>
       <c r="C27" t="n">
-        <v>716.7812791034456</v>
+        <v>718.201565883615</v>
       </c>
       <c r="D27" t="n">
-        <v>586.692311724926</v>
+        <v>588.1125985050953</v>
       </c>
       <c r="E27" t="n">
-        <v>450.2458208358136</v>
+        <v>451.6661076159831</v>
       </c>
       <c r="F27" t="n">
-        <v>325.8140147189454</v>
+        <v>327.2343014991149</v>
       </c>
       <c r="G27" t="n">
-        <v>205.7541967908099</v>
+        <v>207.1744835709794</v>
       </c>
       <c r="H27" t="n">
-        <v>117.4567803914108</v>
+        <v>118.8770671715803</v>
       </c>
       <c r="I27" t="n">
-        <v>68.06952640332239</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J27" t="n">
-        <v>181.1845086230498</v>
+        <v>182.6047954032193</v>
       </c>
       <c r="K27" t="n">
-        <v>500.9236546852762</v>
+        <v>502.3439414654457</v>
       </c>
       <c r="L27" t="n">
-        <v>984.4897405835895</v>
+        <v>985.9100273637589</v>
       </c>
       <c r="M27" t="n">
-        <v>1229.898318516689</v>
+        <v>985.9100273637589</v>
       </c>
       <c r="N27" t="n">
-        <v>1229.898318516689</v>
+        <v>1231.318605296859</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.41860110767</v>
+        <v>1747.83888788784</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.039969824068</v>
+        <v>2153.460256604237</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.405061378958</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.488018277023</v>
+        <v>2363.908305057192</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.557341176891</v>
+        <v>2228.977627957061</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.5735293758</v>
+        <v>2051.993816155969</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.510386054442</v>
+        <v>1841.930672834611</v>
       </c>
       <c r="V27" t="n">
-        <v>1617.970384425509</v>
+        <v>1619.390671205678</v>
       </c>
       <c r="W27" t="n">
-        <v>1387.853138558796</v>
+        <v>1389.273425338965</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.546060908807</v>
+        <v>1199.966347688977</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.231843984315</v>
+        <v>1020.652130764484</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.0347656543073</v>
+        <v>500.4550524344766</v>
       </c>
       <c r="C28" t="n">
-        <v>423.7703290074848</v>
+        <v>425.1906157876542</v>
       </c>
       <c r="D28" t="n">
-        <v>363.0778971971879</v>
+        <v>364.4981839773573</v>
       </c>
       <c r="E28" t="n">
-        <v>302.4597663435787</v>
+        <v>303.8800531237483</v>
       </c>
       <c r="F28" t="n">
-        <v>240.07451284374</v>
+        <v>241.4947996239096</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7611402303739</v>
+        <v>168.1814270105434</v>
       </c>
       <c r="H28" t="n">
-        <v>106.2232704790562</v>
+        <v>107.6435572592257</v>
       </c>
       <c r="I28" t="n">
-        <v>68.06952640332239</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J28" t="n">
-        <v>131.3471455354582</v>
+        <v>132.7674323156276</v>
       </c>
       <c r="K28" t="n">
-        <v>306.2335483749733</v>
+        <v>307.6538351551427</v>
       </c>
       <c r="L28" t="n">
-        <v>563.4125499783464</v>
+        <v>564.8328367585158</v>
       </c>
       <c r="M28" t="n">
-        <v>842.7554900461837</v>
+        <v>844.1757768263532</v>
       </c>
       <c r="N28" t="n">
-        <v>1118.996485806966</v>
+        <v>1120.416772587136</v>
       </c>
       <c r="O28" t="n">
-        <v>1374.752614578248</v>
+        <v>1376.172901358417</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.680142084399</v>
+        <v>1589.100428864569</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.153700184024</v>
+        <v>1685.573986964193</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.193392103789</v>
+        <v>1656.613678883958</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.317989573527</v>
+        <v>1548.738276353696</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.539619028949</v>
+        <v>1407.959905809118</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.041508558038</v>
+        <v>1217.461795338208</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.002844666051</v>
+        <v>1046.42313144622</v>
       </c>
       <c r="W28" t="n">
-        <v>856.6131238844171</v>
+        <v>858.0334106645863</v>
       </c>
       <c r="X28" t="n">
-        <v>717.4734829545885</v>
+        <v>718.8937697347578</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.3021030584202</v>
+        <v>590.7223898385896</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.162273879925</v>
+        <v>1688.705318221233</v>
       </c>
       <c r="C29" t="n">
-        <v>1578.927453670044</v>
+        <v>1390.470498011352</v>
       </c>
       <c r="D29" t="n">
-        <v>1288.4270061739</v>
+        <v>1099.970050515208</v>
       </c>
       <c r="E29" t="n">
-        <v>980.7841625776326</v>
+        <v>792.3272069189404</v>
       </c>
       <c r="F29" t="n">
-        <v>658.8304053947987</v>
+        <v>616.8542565546213</v>
       </c>
       <c r="G29" t="n">
-        <v>340.6083311699903</v>
+        <v>298.6321823298128</v>
       </c>
       <c r="H29" t="n">
-        <v>111.4659620236692</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="I29" t="n">
-        <v>68.06952640332239</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J29" t="n">
-        <v>305.7706610417238</v>
+        <v>307.1909478218932</v>
       </c>
       <c r="K29" t="n">
-        <v>664.7530170691856</v>
+        <v>759.2246655789284</v>
       </c>
       <c r="L29" t="n">
-        <v>1158.073308787714</v>
+        <v>1345.59631902703</v>
       </c>
       <c r="M29" t="n">
-        <v>1716.489659904711</v>
+        <v>1917.792215374319</v>
       </c>
       <c r="N29" t="n">
-        <v>2337.352305271746</v>
+        <v>2445.603499011781</v>
       </c>
       <c r="O29" t="n">
-        <v>2870.443267893648</v>
+        <v>2885.643099904109</v>
       </c>
       <c r="P29" t="n">
-        <v>3218.63076002517</v>
+        <v>3233.830592035632</v>
       </c>
       <c r="Q29" t="n">
-        <v>3403.476320166119</v>
+        <v>3418.67615217658</v>
       </c>
       <c r="R29" t="n">
-        <v>3403.476320166119</v>
+        <v>3474.490659174593</v>
       </c>
       <c r="S29" t="n">
-        <v>3331.903446394358</v>
+        <v>3402.917785402833</v>
       </c>
       <c r="T29" t="n">
-        <v>3203.343525240963</v>
+        <v>3274.357864249438</v>
       </c>
       <c r="U29" t="n">
-        <v>3042.53147696275</v>
+        <v>3113.545815971224</v>
       </c>
       <c r="V29" t="n">
-        <v>2795.365348953457</v>
+        <v>2866.379687961931</v>
       </c>
       <c r="W29" t="n">
-        <v>2519.306995208933</v>
+        <v>2590.321334217407</v>
       </c>
       <c r="X29" t="n">
-        <v>2484.266366096344</v>
+        <v>2295.809410437652</v>
       </c>
       <c r="Y29" t="n">
-        <v>2182.716338304133</v>
+        <v>1994.259382645442</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.4355095433534</v>
+        <v>868.8557963235228</v>
       </c>
       <c r="C30" t="n">
-        <v>716.7812791034456</v>
+        <v>718.201565883615</v>
       </c>
       <c r="D30" t="n">
-        <v>586.692311724926</v>
+        <v>588.1125985050953</v>
       </c>
       <c r="E30" t="n">
-        <v>450.2458208358136</v>
+        <v>451.6661076159831</v>
       </c>
       <c r="F30" t="n">
-        <v>325.8140147189454</v>
+        <v>327.2343014991149</v>
       </c>
       <c r="G30" t="n">
-        <v>205.7541967908099</v>
+        <v>207.1744835709794</v>
       </c>
       <c r="H30" t="n">
-        <v>117.4567803914108</v>
+        <v>118.8770671715803</v>
       </c>
       <c r="I30" t="n">
-        <v>68.06952640332239</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J30" t="n">
-        <v>181.1845086230498</v>
+        <v>182.6047954032193</v>
       </c>
       <c r="K30" t="n">
-        <v>500.9236546852762</v>
+        <v>502.3439414654457</v>
       </c>
       <c r="L30" t="n">
-        <v>984.4897405835895</v>
+        <v>985.9100273637589</v>
       </c>
       <c r="M30" t="n">
-        <v>1229.898318516689</v>
+        <v>985.9100273637589</v>
       </c>
       <c r="N30" t="n">
-        <v>1229.898318516689</v>
+        <v>1231.318605296859</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.41860110767</v>
+        <v>1747.83888788784</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.039969824068</v>
+        <v>2153.460256604237</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.405061378958</v>
+        <v>2387.825348159128</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.488018277023</v>
+        <v>2363.908305057192</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.557341176891</v>
+        <v>2228.977627957061</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.5735293758</v>
+        <v>2051.993816155969</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.510386054442</v>
+        <v>1841.930672834611</v>
       </c>
       <c r="V30" t="n">
-        <v>1617.970384425509</v>
+        <v>1619.390671205678</v>
       </c>
       <c r="W30" t="n">
-        <v>1387.853138558796</v>
+        <v>1389.273425338965</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.546060908807</v>
+        <v>1199.966347688977</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.231843984315</v>
+        <v>1020.652130764484</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.034765654307</v>
+        <v>500.4550524344769</v>
       </c>
       <c r="C31" t="n">
-        <v>423.7703290074846</v>
+        <v>425.1906157876545</v>
       </c>
       <c r="D31" t="n">
-        <v>363.0778971971877</v>
+        <v>364.4981839773573</v>
       </c>
       <c r="E31" t="n">
-        <v>302.4597663435785</v>
+        <v>303.8800531237484</v>
       </c>
       <c r="F31" t="n">
-        <v>240.0745128437398</v>
+        <v>241.4947996239098</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7611402303736</v>
+        <v>168.1814270105435</v>
       </c>
       <c r="H31" t="n">
-        <v>106.2232704790562</v>
+        <v>107.6435572592259</v>
       </c>
       <c r="I31" t="n">
-        <v>68.06952640332239</v>
+        <v>69.48981318349188</v>
       </c>
       <c r="J31" t="n">
-        <v>131.3471455354583</v>
+        <v>132.7674323156277</v>
       </c>
       <c r="K31" t="n">
-        <v>306.2335483749735</v>
+        <v>307.6538351551429</v>
       </c>
       <c r="L31" t="n">
-        <v>563.4125499783465</v>
+        <v>564.8328367585157</v>
       </c>
       <c r="M31" t="n">
-        <v>842.7554900461839</v>
+        <v>844.1757768263531</v>
       </c>
       <c r="N31" t="n">
-        <v>1118.996485806966</v>
+        <v>1120.416772587135</v>
       </c>
       <c r="O31" t="n">
-        <v>1374.752614578248</v>
+        <v>1376.172901358417</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.680142084399</v>
+        <v>1589.100428864569</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.153700184024</v>
+        <v>1685.573986964193</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.193392103789</v>
+        <v>1656.613678883959</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.317989573527</v>
+        <v>1548.738276353696</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.539619028949</v>
+        <v>1407.959905809119</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.041508558038</v>
+        <v>1217.461795338208</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.002844666051</v>
+        <v>1046.423131446221</v>
       </c>
       <c r="W31" t="n">
-        <v>856.613123884417</v>
+        <v>858.0334106645867</v>
       </c>
       <c r="X31" t="n">
-        <v>717.4734829545883</v>
+        <v>718.8937697347582</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.30210305842</v>
+        <v>590.7223898385898</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414175</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C32" t="n">
-        <v>1352.560722599514</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975438</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803429</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924211</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I32" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404046</v>
       </c>
       <c r="L32" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358933</v>
       </c>
       <c r="M32" t="n">
         <v>1605.072448403514</v>
@@ -6716,7 +6716,7 @@
         <v>2572.923332933305</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064826</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205775</v>
@@ -6725,25 +6725,25 @@
         <v>3105.956385205775</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829233</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.467337224688</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840154</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443163</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860693</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369565</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218798</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072652</v>
+        <v>87.33863074072664</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462906</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I34" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J34" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K34" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878571</v>
+        <v>437.1381783102857</v>
       </c>
       <c r="M34" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N34" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O34" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P34" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U34" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W34" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924213</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6944,37 +6944,37 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840155</v>
@@ -6999,10 +6999,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,13 +7011,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
         <v>978.5393418843826</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588724</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072653</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462906</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229817</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>149.53381142224</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184684</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567324</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879416</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296496</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924221</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7196,22 +7196,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7236,10 +7236,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
@@ -7248,19 +7248,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.3386307407267</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462915</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974522</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7403,10 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292423</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7430,22 +7430,22 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7473,10 +7473,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
         <v>199.803798091603</v>
@@ -7485,19 +7485,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634916</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072687</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102856</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485496</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
         <v>806.6193906797589</v>
@@ -7588,31 +7588,31 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476282</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194236</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330096</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984011</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974529</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924238</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7664,22 +7664,22 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
@@ -7691,7 +7691,7 @@
         <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.93197918856</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218807</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407269</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462926</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K46" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184709</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567349</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879441</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296521</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106231</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>160.11375645983</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>666.7571941269364</v>
+        <v>581.2265400410661</v>
       </c>
       <c r="N2" t="n">
-        <v>666.1506338669932</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,16 +8061,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>456.7834743674006</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>591.6656798264023</v>
       </c>
       <c r="N3" t="n">
-        <v>602.4042553833757</v>
+        <v>417.3053874160529</v>
       </c>
       <c r="O3" t="n">
-        <v>609.719701418098</v>
+        <v>591.9661166659794</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8225,16 +8225,16 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>666.1506338669932</v>
+        <v>644.8548565932051</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>315.9777537964144</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8295,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>609.4192645785209</v>
+        <v>591.6656798264023</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>584.6506706312571</v>
       </c>
       <c r="O6" t="n">
-        <v>487.9922371121023</v>
+        <v>259.6523771990059</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>457.8528328367281</v>
       </c>
       <c r="L8" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>612.8252961895594</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,13 +8538,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>384.8576652182076</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8769,22 +8769,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L12" t="n">
-        <v>290.5921503773105</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8933,7 +8933,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -9003,22 +9003,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>543.8532815002535</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9243,16 +9243,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>663.2434089132776</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9717,16 +9717,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>663.2434089132776</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.2745745069881</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.2745745069881</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,16 +10425,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10592,7 +10592,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488179</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>54.29825255428622</v>
+        <v>57.40342426721286</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>138.6101032320039</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>173.6448807985004</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>218.1209320819905</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>212.7884773804413</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>309.8703088044313</v>
+        <v>312.9754805173579</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>71.26827234394736</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.1324297951025</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>203.0340823692711</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>141.249789986308</v>
       </c>
       <c r="W13" t="n">
-        <v>80.8533924429879</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>120.1945654265912</v>
       </c>
       <c r="D14" t="n">
-        <v>174.9033424545967</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.2918984579272</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>85.29809803711295</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>141.7152749449305</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>173.6448807985004</v>
       </c>
       <c r="V14" t="n">
-        <v>256.0302480193432</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>284.6335514972218</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>88.95274528342368</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>74.45290254814252</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>76.20235396790979</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>74.37344405687396</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>30.30242649922833</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>180.6640585432104</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.59003603882807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>129.6022597786333</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24494,13 +24494,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>187.9784700144733</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>145.0159987503296</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>256.8765817204944</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>820681.2967727766</v>
+        <v>819394.8612618898</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>820681.2967727766</v>
+        <v>819394.8612618898</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>768203.4010356216</v>
+        <v>762444.8968592322</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>768203.4010356216</v>
+        <v>762444.8968592322</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813351.1612448398</v>
+        <v>819109.6654212292</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813351.1612448399</v>
+        <v>819109.6654212292</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834820.9059450387</v>
+        <v>834820.9059450388</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>504930.0986613992</v>
+      </c>
+      <c r="C2" t="n">
         <v>504930.098661399</v>
       </c>
-      <c r="C2" t="n">
-        <v>504930.0986613991</v>
-      </c>
       <c r="D2" t="n">
-        <v>504930.0986613991</v>
+        <v>504930.098661399</v>
       </c>
       <c r="E2" t="n">
-        <v>460518.4287217872</v>
+        <v>456679.4259375285</v>
       </c>
       <c r="F2" t="n">
-        <v>460518.4287217872</v>
+        <v>456679.4259375283</v>
       </c>
       <c r="G2" t="n">
+        <v>504930.0986613984</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504930.0986613983</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504930.0986613982</v>
+      </c>
+      <c r="J2" t="n">
+        <v>494455.9383121926</v>
+      </c>
+      <c r="K2" t="n">
+        <v>494455.9383121925</v>
+      </c>
+      <c r="L2" t="n">
         <v>504930.098661399</v>
       </c>
-      <c r="H2" t="n">
-        <v>504930.0986613993</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>504930.0986613984</v>
       </c>
-      <c r="J2" t="n">
-        <v>490616.9355279331</v>
-      </c>
-      <c r="K2" t="n">
-        <v>490616.9355279331</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504930.0986613996</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504930.0986613994</v>
-      </c>
       <c r="N2" t="n">
-        <v>504930.0986613987</v>
+        <v>504930.0986613989</v>
       </c>
       <c r="O2" t="n">
         <v>504930.0986613987</v>
       </c>
       <c r="P2" t="n">
-        <v>504930.0986613986</v>
+        <v>504930.0986613996</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173269.3627008161</v>
+        <v>167319.7281179319</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23104.65434918291</v>
+        <v>28619.45038073352</v>
       </c>
       <c r="E3" t="n">
-        <v>121384.3061055979</v>
+        <v>118900.1687352566</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40647.71827546991</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>189284.7356695866</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.13686837721616e-11</v>
       </c>
-      <c r="G3" t="n">
-        <v>38163.58090512864</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>191768.8730399279</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>67258.53677814305</v>
+        <v>69742.67414848428</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989169</v>
+        <v>46121.92123989172</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>37029.43867432451</v>
+        <v>34545.30130398321</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237678.3429158603</v>
+        <v>241176.6654449998</v>
       </c>
       <c r="C4" t="n">
-        <v>237678.3429158603</v>
+        <v>241176.6654449998</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>163209.5240165948</v>
+        <v>160071.6060205697</v>
       </c>
       <c r="F4" t="n">
-        <v>163209.5240165948</v>
+        <v>160071.6060205697</v>
       </c>
       <c r="G4" t="n">
         <v>199269.1699682603</v>
@@ -26436,13 +26436,13 @@
         <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>188080.7174146149</v>
+        <v>191282.9196628495</v>
       </c>
       <c r="K4" t="n">
-        <v>188080.7174146148</v>
+        <v>191282.9196628495</v>
       </c>
       <c r="L4" t="n">
         <v>199269.1699682603</v>
@@ -26451,13 +26451,13 @@
         <v>199269.1699682603</v>
       </c>
       <c r="N4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="O4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="P4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
     </row>
     <row r="5">
@@ -26467,46 +26467,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65063.15426577591</v>
+        <v>63983.7363128471</v>
       </c>
       <c r="C5" t="n">
-        <v>65063.15426577591</v>
+        <v>63983.7363128471</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>54159.30171162808</v>
+        <v>53898.25303089405</v>
       </c>
       <c r="F5" t="n">
-        <v>54159.30171162809</v>
+        <v>53898.25303089406</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="I5" t="n">
-        <v>58169.76931551965</v>
-      </c>
       <c r="J5" t="n">
-        <v>59634.59252030632</v>
+        <v>60714.01047323512</v>
       </c>
       <c r="K5" t="n">
-        <v>59634.59252030632</v>
+        <v>60714.01047323512</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551965</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551964</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28919.23877894664</v>
+        <v>32449.96878562049</v>
       </c>
       <c r="C6" t="n">
-        <v>202188.6014797628</v>
+        <v>199769.6969035522</v>
       </c>
       <c r="D6" t="n">
-        <v>189218.1304833755</v>
+        <v>183703.3344518248</v>
       </c>
       <c r="E6" t="n">
-        <v>121765.2968879664</v>
+        <v>123637.0743196515</v>
       </c>
       <c r="F6" t="n">
-        <v>243149.6029935643</v>
+        <v>242537.2430549078</v>
       </c>
       <c r="G6" t="n">
-        <v>209327.5784724904</v>
+        <v>206843.4411021486</v>
       </c>
       <c r="H6" t="n">
-        <v>247491.1593776193</v>
+        <v>247491.1593776183</v>
       </c>
       <c r="I6" t="n">
-        <v>247491.1593776185</v>
+        <v>247491.1593776183</v>
       </c>
       <c r="J6" t="n">
-        <v>51132.75255308397</v>
+        <v>53136.86479098853</v>
       </c>
       <c r="K6" t="n">
-        <v>242901.6255930119</v>
+        <v>242421.600460575</v>
       </c>
       <c r="L6" t="n">
-        <v>180232.6225994765</v>
+        <v>177748.4852291348</v>
       </c>
       <c r="M6" t="n">
-        <v>201369.2381377278</v>
+        <v>201369.2381377267</v>
       </c>
       <c r="N6" t="n">
-        <v>247491.159377619</v>
+        <v>247491.1593776189</v>
       </c>
       <c r="O6" t="n">
-        <v>210461.7207032944</v>
+        <v>212945.8580736355</v>
       </c>
       <c r="P6" t="n">
-        <v>247491.1593776188</v>
+        <v>247491.1593776196</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="F2" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26704,28 +26704,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431644</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431644</v>
-      </c>
       <c r="L2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0321425292091</v>
+        <v>499.2785577770904</v>
       </c>
       <c r="C4" t="n">
-        <v>517.0321425292091</v>
+        <v>499.2785577770904</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,31 +26805,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>850.8690800415297</v>
+        <v>868.6226647936484</v>
       </c>
       <c r="K4" t="n">
-        <v>850.8690800415297</v>
+        <v>868.6226647936484</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014437</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50.80964784433739</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>43.18162662997902</v>
+      </c>
+      <c r="K2" t="n">
         <v>1.4210854715202e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>47.7044761314108</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.28679834290573</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>84.07317097267882</v>
+        <v>87.17834268560534</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>46.28679834290564</v>
+        <v>43.18162662997902</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0321425292091</v>
+        <v>499.2785577770904</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74.379983740086</v>
+        <v>92.13356849220463</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321491</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50.80964784433739</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>43.18162662997902</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.4210854715202e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>47.7044761314108</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.28679834290573</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.0321425292091</v>
+        <v>499.2785577770904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>74.379983740086</v>
+        <v>92.13356849220463</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27388,10 +27388,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.1708722142624</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>267.0533836773967</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30.88318971379026</v>
       </c>
       <c r="C3" t="n">
-        <v>62.23938469506942</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>67.3538216273992</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>69.25628948555598</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27619,10 +27619,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>122.0967678186204</v>
       </c>
       <c r="E5" t="n">
-        <v>53.19865611259848</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>182.3379789214661</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.3754698019731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9954293434360011</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27834,7 +27834,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>250.128801022181</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>46.45517681130866</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>261.6122959552486</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28014,25 +28014,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>120.611093132175</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="C11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="D11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="E11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="F11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="G11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="H11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="I11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="T11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="U11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="V11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="W11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="X11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="C13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="D13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="E13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="F13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="G13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="I13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="J13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="K13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="L13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="M13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="N13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="O13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="P13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="R13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="S13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="T13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="U13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="V13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="W13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="X13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.65549318417359</v>
+        <v>79.55032147124696</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="C14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="D14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="E14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="F14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="G14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="H14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="I14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="T14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="U14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="V14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="W14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="X14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="C16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="D16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="E16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="F16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="G16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="I16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="J16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="K16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="L16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="M16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="N16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="O16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="P16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="R16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="S16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="T16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="U16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="V16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="W16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="X16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.65549318417361</v>
+        <v>79.55032147124699</v>
       </c>
     </row>
     <row r="17">
@@ -28743,14 +28743,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>35.71049010668825</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>35.71049010668756</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28986,16 +28986,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634528495</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29080,31 +29080,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,43 +29193,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>50.15384424644083</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>26.45959222495742</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,46 +29509,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>12.54085966910702</v>
+        <v>26.45959222495742</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y32" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,10 +29934,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M34" t="n">
-        <v>130.3599693155845</v>
+        <v>5.636002634528666</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>5.636002634527912</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -29955,25 +29955,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,37 +30141,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668701</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>35.71049010668797</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733238</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>130.3599693155844</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668813</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,10 +30414,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>-7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,37 +30615,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.636002634530383</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,37 +30852,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634530541</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>5.636002634528126</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>17.05535328059268</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>517.0321425292091</v>
+        <v>431.5014884433388</v>
       </c>
       <c r="N2" t="n">
-        <v>517.0321425292091</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>366.7231275104824</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>499.2785577770904</v>
       </c>
       <c r="N3" t="n">
-        <v>517.0321425292091</v>
+        <v>331.9332745618862</v>
       </c>
       <c r="O3" t="n">
-        <v>517.0321425292091</v>
+        <v>499.2785577770904</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>517.0321425292091</v>
+        <v>495.736365255421</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>171.4790553780222</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>517.0321425292091</v>
+        <v>499.2785577770904</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>499.2785577770904</v>
       </c>
       <c r="O6" t="n">
-        <v>395.3046782232134</v>
+        <v>166.964818310117</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>314.7944296574907</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>463.1002445918322</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,13 +35258,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>292.4705431688957</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L12" t="n">
-        <v>200.5318035203923</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58100571201452</v>
+        <v>49.47583399908789</v>
       </c>
       <c r="K13" t="n">
-        <v>165.3171508709836</v>
+        <v>162.2119791580569</v>
       </c>
       <c r="L13" t="n">
-        <v>248.4409880061936</v>
+        <v>245.3358162932669</v>
       </c>
       <c r="M13" t="n">
-        <v>270.8288046369655</v>
+        <v>267.7236329240389</v>
       </c>
       <c r="N13" t="n">
-        <v>267.6955275591324</v>
+        <v>264.5903558462057</v>
       </c>
       <c r="O13" t="n">
-        <v>247.0037427212525</v>
+        <v>243.8985710083258</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7425293221318</v>
+        <v>200.6373576092051</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.11225719432608</v>
+        <v>83.00708548139944</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>458.4811686460869</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58100571201454</v>
+        <v>49.47583399908792</v>
       </c>
       <c r="K16" t="n">
-        <v>165.3171508709836</v>
+        <v>162.211979158057</v>
       </c>
       <c r="L16" t="n">
-        <v>248.4409880061936</v>
+        <v>245.335816293267</v>
       </c>
       <c r="M16" t="n">
-        <v>270.8288046369656</v>
+        <v>267.723632924039</v>
       </c>
       <c r="N16" t="n">
-        <v>267.6955275591324</v>
+        <v>264.5903558462058</v>
       </c>
       <c r="O16" t="n">
-        <v>247.0037427212525</v>
+        <v>243.8985710083259</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7425293221318</v>
+        <v>200.6373576092051</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.11225719432609</v>
+        <v>83.00708548139947</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,7 +36057,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>156.7975262446457</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>570.8562868639657</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36282,16 +36282,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
-        <v>193.8093140873204</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>570.8562868639657</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565499</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36595,28 +36595,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>601.6699048975323</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>559.6023029698686</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576762</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>564.0569203201985</v>
+        <v>577.9756528760489</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
@@ -36853,7 +36853,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576762</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317787</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510907</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729928</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5332807683764</v>
+        <v>193.8093140873206</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
@@ -37242,7 +37242,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>126.7230387724861</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37312,7 +37312,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510907</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634527939</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37482,7 +37482,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411684045</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634529059</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133855</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,10 +37710,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110584</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37956,10 +37956,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.092766644682866</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565505</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>169.984252171607</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
